--- a/out/reality.xlsx
+++ b/out/reality.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thales\python\estate\out\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2AD39F-44F2-4A5A-864F-59C7423A6C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
     <sheet name="精确" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -251,12 +245,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,30 +258,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -317,31 +298,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -383,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,27 +387,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,24 +421,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,16 +596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="E2" t="s">
         <v>71</v>
       </c>
@@ -724,7 +658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -738,13 +672,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1.8112999999999999</v>
+        <v>1.8113</v>
       </c>
       <c r="F3">
-        <v>3.8037299999999998</v>
+        <v>3.80373</v>
       </c>
       <c r="G3">
-        <v>5363.2592999999997</v>
+        <v>5363.2593</v>
       </c>
       <c r="H3">
         <v>2961</v>
@@ -768,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -785,7 +719,7 @@
         <v>14.1553</v>
       </c>
       <c r="F4">
-        <v>28.310600000000001</v>
+        <v>28.3106</v>
       </c>
       <c r="G4">
         <v>72192.03</v>
@@ -812,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -826,13 +760,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>3.5781200000000002</v>
+        <v>3.57812</v>
       </c>
       <c r="F5">
-        <v>6.4406160000000003</v>
+        <v>6.440616</v>
       </c>
       <c r="G5">
-        <v>58287.574800000002</v>
+        <v>58287.5748</v>
       </c>
       <c r="H5">
         <v>16290</v>
@@ -844,7 +778,7 @@
         <v>1.8</v>
       </c>
       <c r="K5">
-        <v>0.12702366127023701</v>
+        <v>0.127023661270237</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -856,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -873,10 +807,10 @@
         <v>1.142442</v>
       </c>
       <c r="F6">
-        <v>2.2848839999999999</v>
+        <v>2.284884</v>
       </c>
       <c r="G6">
-        <v>24219.770400000001</v>
+        <v>24219.7704</v>
       </c>
       <c r="H6">
         <v>21200</v>
@@ -888,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>2.9126213592233E-2</v>
+        <v>0.029126213592233</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -897,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -914,13 +848,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>7.3537730000000003</v>
+        <v>7.353773</v>
       </c>
       <c r="F7">
-        <v>14.707546000000001</v>
+        <v>14.707546</v>
       </c>
       <c r="G7">
-        <v>79420.748399999997</v>
+        <v>79420.7484</v>
       </c>
       <c r="H7">
         <v>10800</v>
@@ -944,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -958,13 +892,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>16.022048000000002</v>
+        <v>16.022048</v>
       </c>
       <c r="F8">
-        <v>28.839686400000001</v>
+        <v>28.8396864</v>
       </c>
       <c r="G8">
-        <v>201877.80480000001</v>
+        <v>201877.8048</v>
       </c>
       <c r="H8">
         <v>12600</v>
@@ -976,7 +910,7 @@
         <v>1.8</v>
       </c>
       <c r="K8">
-        <v>0.28440366972477099</v>
+        <v>0.284403669724771</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -988,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1002,13 +936,13 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>16.112774000000002</v>
+        <v>16.112774</v>
       </c>
       <c r="F9">
         <v>27.3917158</v>
       </c>
       <c r="G9">
-        <v>73683.715502000006</v>
+        <v>73683.71550200001</v>
       </c>
       <c r="H9">
         <v>4573</v>
@@ -1032,51 +966,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5.1922050000000004</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10.384410000000001</v>
-      </c>
-      <c r="G10" s="2">
-        <v>65421.783000000003</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5.192205</v>
+      </c>
+      <c r="F10">
+        <v>10.38441</v>
+      </c>
+      <c r="G10">
+        <v>65421.783</v>
+      </c>
+      <c r="H10">
         <v>12600</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>6300</v>
       </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.60714285714285698</v>
-      </c>
-      <c r="L10" s="2">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1093,10 +1027,10 @@
         <v>14.57366</v>
       </c>
       <c r="F11">
-        <v>29.147320000000001</v>
+        <v>29.14732</v>
       </c>
       <c r="G11">
-        <v>183628.11600000001</v>
+        <v>183628.116</v>
       </c>
       <c r="H11">
         <v>12600</v>
@@ -1120,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1134,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>6.0290429999999997</v>
+        <v>6.029043</v>
       </c>
       <c r="F12">
-        <v>12.058085999999999</v>
+        <v>12.058086</v>
       </c>
       <c r="G12">
         <v>27733.5978</v>
@@ -1152,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <v>0.21052631578947401</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1164,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1178,13 +1112,13 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4.8334000000000001</v>
+        <v>4.8334</v>
       </c>
       <c r="F13">
-        <v>8.7001200000000001</v>
+        <v>8.70012</v>
       </c>
       <c r="G13">
-        <v>34365.474000000002</v>
+        <v>34365.474</v>
       </c>
       <c r="H13">
         <v>7110</v>
@@ -1196,7 +1130,7 @@
         <v>1.8</v>
       </c>
       <c r="K13">
-        <v>0.37152777777777801</v>
+        <v>0.371527777777778</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -1208,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1162,7 @@
         <v>21.28032</v>
       </c>
       <c r="G14">
-        <v>61287.321600000003</v>
+        <v>61287.3216</v>
       </c>
       <c r="H14">
         <v>5184</v>
@@ -1252,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1272,7 +1206,7 @@
         <v>2.8034265</v>
       </c>
       <c r="G15">
-        <v>2831.4607649999998</v>
+        <v>2831.460765</v>
       </c>
       <c r="H15">
         <v>2121</v>
@@ -1296,95 +1230,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
-        <v>3.2526000000000002</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6.5052000000000003</v>
-      </c>
-      <c r="G16" s="2">
-        <v>18214.560000000001</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="E16">
+        <v>3.2526</v>
+      </c>
+      <c r="F16">
+        <v>6.5052</v>
+      </c>
+      <c r="G16">
+        <v>18214.56</v>
+      </c>
+      <c r="H16">
         <v>5600</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>2800</v>
       </c>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2">
-        <v>4.47761194029851E-2</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0.0447761194029851</v>
+      </c>
+      <c r="L16">
         <v>5</v>
       </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.1101</v>
+      </c>
+      <c r="F17">
+        <v>2.77525</v>
+      </c>
+      <c r="G17">
+        <v>11933.575</v>
+      </c>
+      <c r="H17">
+        <v>10750</v>
+      </c>
+      <c r="I17">
+        <v>4300</v>
+      </c>
+      <c r="J17">
+        <v>2.5</v>
+      </c>
+      <c r="K17">
+        <v>0.155913978494624</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.1101000000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.7752500000000002</v>
-      </c>
-      <c r="G17" s="2">
-        <v>11933.575000000001</v>
-      </c>
-      <c r="H17" s="2">
-        <v>10750</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4300</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.15591397849462399</v>
-      </c>
-      <c r="L17" s="2">
-        <v>2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>8.4502000000000006</v>
+        <v>8.450200000000001</v>
       </c>
       <c r="F18">
         <v>15.21036</v>
@@ -1416,7 +1350,7 @@
         <v>1.8</v>
       </c>
       <c r="K18">
-        <v>0.49572649572649602</v>
+        <v>0.495726495726496</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -1428,51 +1362,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>15.480219</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>30.960438</v>
       </c>
-      <c r="G19" s="2">
-        <v>216723.06599999999</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19">
+        <v>216723.066</v>
+      </c>
+      <c r="H19">
         <v>14000</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>7000</v>
       </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>7.0336391437308896E-2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0.0703363914373089</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1489,7 +1423,7 @@
         <v>10.86077</v>
       </c>
       <c r="F20">
-        <v>21.721540000000001</v>
+        <v>21.72154</v>
       </c>
       <c r="G20">
         <v>282380.02</v>
@@ -1504,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="K20">
-        <v>0.42076502732240401</v>
+        <v>0.420765027322404</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1516,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1530,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>2.4806650000000001</v>
+        <v>2.480665</v>
       </c>
       <c r="F21">
-        <v>4.2171304999999997</v>
+        <v>4.2171305</v>
       </c>
       <c r="G21">
         <v>20242.2264</v>
@@ -1548,7 +1482,7 @@
         <v>1.7</v>
       </c>
       <c r="K21">
-        <v>0.22448979591836701</v>
+        <v>0.224489795918367</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -1557,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1577,10 +1511,10 @@
         <v>1.109731</v>
       </c>
       <c r="F22">
-        <v>4.9937895000000001</v>
+        <v>4.9937895</v>
       </c>
       <c r="G22">
-        <v>59925.474000000002</v>
+        <v>59925.474</v>
       </c>
       <c r="H22">
         <v>54000</v>
@@ -1592,7 +1526,7 @@
         <v>4.5</v>
       </c>
       <c r="K22">
-        <v>0.14068441064638801</v>
+        <v>0.140684410646388</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -1604,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1618,13 +1552,13 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>11.226637999999999</v>
+        <v>11.226638</v>
       </c>
       <c r="F23">
-        <v>20.207948399999999</v>
+        <v>20.2079484</v>
       </c>
       <c r="G23">
-        <v>90935.767800000001</v>
+        <v>90935.7678</v>
       </c>
       <c r="H23">
         <v>8100</v>
@@ -1648,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>0.54779699999999998</v>
+        <v>0.547797</v>
       </c>
       <c r="F24">
         <v>2.738985</v>
@@ -1680,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <v>0.45772594752186602</v>
+        <v>0.457725947521866</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -1692,95 +1626,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>13.671886000000001</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>13.671886</v>
+      </c>
+      <c r="F25">
         <v>24.6093948</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>78750.06336</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>5760</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>3200</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>1.8</v>
       </c>
-      <c r="K25" s="2">
-        <v>0.32231404958677701</v>
-      </c>
-      <c r="L25" s="2">
-        <v>2</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="K25">
+        <v>0.322314049586777</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>7</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" s="2">
-        <v>8.0148620000000008</v>
-      </c>
-      <c r="F26" s="2">
-        <v>14.426751599999999</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="E26">
+        <v>8.014862000000001</v>
+      </c>
+      <c r="F26">
+        <v>14.4267516</v>
+      </c>
+      <c r="G26">
         <v>46165.60512</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <v>5760</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>3200</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <v>1.8</v>
       </c>
-      <c r="K26" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="L26" s="2">
-        <v>2</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="K26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1794,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>16.024132999999999</v>
+        <v>16.024133</v>
       </c>
       <c r="F27">
-        <v>28.843439400000001</v>
+        <v>28.8434394</v>
       </c>
       <c r="G27">
-        <v>250937.92277999999</v>
+        <v>250937.92278</v>
       </c>
       <c r="H27">
         <v>15660</v>
@@ -1812,7 +1746,7 @@
         <v>1.8</v>
       </c>
       <c r="K27">
-        <v>0.33850000000000002</v>
+        <v>0.3385</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1824,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1841,10 +1775,10 @@
         <v>10.017828</v>
       </c>
       <c r="F28">
-        <v>18.032090400000001</v>
+        <v>18.0320904</v>
       </c>
       <c r="G28">
-        <v>79341.197759999995</v>
+        <v>79341.19776</v>
       </c>
       <c r="H28">
         <v>7920</v>
@@ -1868,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1882,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>14.928115999999999</v>
+        <v>14.928116</v>
       </c>
       <c r="F29">
-        <v>26.870608799999999</v>
+        <v>26.8706088</v>
       </c>
       <c r="G29">
-        <v>115543.61784000001</v>
+        <v>115543.61784</v>
       </c>
       <c r="H29">
         <v>7740</v>
@@ -1912,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1956,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1988,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="K31">
-        <v>3.61E-2</v>
+        <v>0.0361</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2000,139 +1934,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>9.5835340000000002</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>9.583534</v>
+      </c>
+      <c r="F32">
         <v>17.2503612</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>153528.21468</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
         <v>16020</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
         <v>8900</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32">
         <v>1.8</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32">
         <v>0.1139</v>
       </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>1.062589</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>2.6564725</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>18329.66</v>
       </c>
-      <c r="H33" s="2">
-        <v>17249.999764725599</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="H33">
+        <v>17249.9997647256</v>
+      </c>
+      <c r="I33">
         <v>6900</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33">
         <v>2.5</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33">
         <v>0.06</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>16.318325000000002</v>
-      </c>
-      <c r="F34" s="2">
-        <v>32.636650000000003</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>16.318325</v>
+      </c>
+      <c r="F34">
+        <v>32.63665</v>
+      </c>
+      <c r="G34">
         <v>182765.24</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <v>11200</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34">
         <v>5600</v>
       </c>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
         <v>0.24</v>
       </c>
-      <c r="L34" s="2">
-        <v>2</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2146,16 +2080,16 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>18.450099999999999</v>
+        <v>18.4501</v>
       </c>
       <c r="F35">
-        <v>33.210180000000001</v>
+        <v>33.21018</v>
       </c>
       <c r="G35">
         <v>111254.1</v>
       </c>
       <c r="H35">
-        <v>6029.9998373992603</v>
+        <v>6029.99983739926</v>
       </c>
       <c r="I35">
         <v>3350</v>
@@ -2176,95 +2110,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>11.344023999999999</v>
-      </c>
-      <c r="F36" s="2">
-        <v>22.688047999999998</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>11.344024</v>
+      </c>
+      <c r="F36">
+        <v>22.688048</v>
+      </c>
+      <c r="G36">
         <v>215500</v>
       </c>
-      <c r="H36" s="2">
-        <v>18996.786325557801</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="H36">
+        <v>18996.7863255578</v>
+      </c>
+      <c r="I36">
         <v>9500</v>
       </c>
-      <c r="J36" s="2">
-        <v>2</v>
-      </c>
-      <c r="K36" s="2">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="L36" s="2">
-        <v>2</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>0.0225</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>7.771763</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>15.543526</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>74609</v>
       </c>
-      <c r="H37" s="2">
-        <v>9600.0096760542001</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="H37">
+        <v>9600.0096760542</v>
+      </c>
+      <c r="I37">
         <v>4800</v>
       </c>
-      <c r="J37" s="2">
-        <v>2</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.23080000000000001</v>
-      </c>
-      <c r="L37" s="2">
-        <v>2</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>0.2308</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2278,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>6.6684720000000004</v>
+        <v>6.668472</v>
       </c>
       <c r="F38">
-        <v>13.336944000000001</v>
+        <v>13.336944</v>
       </c>
       <c r="G38">
         <v>100027.08</v>
@@ -2296,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2308,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2322,16 +2256,16 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>17.442399999999999</v>
+        <v>17.4424</v>
       </c>
       <c r="F39">
-        <v>31.396319999999999</v>
+        <v>31.39632</v>
       </c>
       <c r="G39">
         <v>78500</v>
       </c>
       <c r="H39">
-        <v>4500.5274503508699</v>
+        <v>4500.52745035087</v>
       </c>
       <c r="I39">
         <v>2500</v>
@@ -2340,7 +2274,7 @@
         <v>1.8</v>
       </c>
       <c r="K39">
-        <v>1.21E-2</v>
+        <v>0.0121</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -2352,65 +2286,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>9</v>
       </c>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
         <v>0.52</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>0.52</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>1100</v>
       </c>
-      <c r="H40" s="2">
-        <v>2115.3846153846198</v>
-      </c>
-      <c r="I40" s="2">
+      <c r="H40">
+        <v>2115.38461538462</v>
+      </c>
+      <c r="I40">
         <v>2150</v>
       </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40">
         <v>5</v>
       </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2421,19 +2354,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.68421052631578949</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="B2">
-        <v>0.69696969696969702</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C2">
         <v>0.92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>